--- a/db/dummydata/st_hubs.xlsx
+++ b/db/dummydata/st_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>STATUS</t>
   </si>
@@ -77,13 +77,82 @@
   </si>
   <si>
     <t>Beisi Road, Qingshui District, Taichung City, Taiwan 436</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>دبي</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Meena Jeddah Al Islami, Jeddah Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>46 Kooringa Way, Port Melbourne VIC 3207, Australia</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>1/4 Towns Pl, Millers Point NSW 2060, Australia</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Zhoushan, Zhejiang, China</t>
+  </si>
+  <si>
+    <t>https://assets.itsmycargo.com/assets/cityimages/Shanghai_sm.jpg</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Stonecutters Island, Hong Kong</t>
+  </si>
+  <si>
+    <t>https://assets.itsmycargo.com/assets/cityimages/Ningbo_sm.jpg</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Xiamen</t>
+  </si>
+  <si>
+    <t>Huli Qu, Xiamen Shi, Fujian Sheng, China, 361000</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>Binhai, Tianjin, China</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -112,10 +181,24 @@
     </font>
     <font/>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Roboto"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -133,13 +216,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -173,15 +264,49 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -341,45 +466,302 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="8">
+        <v>25.0236104</v>
+      </c>
+      <c r="F6" s="12">
+        <v>55.031523</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15">
+        <v>21.4691431</v>
+      </c>
+      <c r="F7" s="16">
+        <v>39.1451453</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-37.8386957</v>
+      </c>
+      <c r="F8" s="18">
+        <v>144.906167</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-33.8605435</v>
+      </c>
+      <c r="F9" s="9">
+        <v>151.2006623</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="19">
+        <v>30.626539</v>
+      </c>
+      <c r="F10" s="19">
+        <v>122.064958</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="20">
+        <v>22.317131</v>
+      </c>
+      <c r="F11" s="5">
+        <v>114.208415</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7">
+        <v>39.9387995</v>
+      </c>
+      <c r="F12" s="9">
+        <v>116.2573776</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7">
+        <v>24.491403</v>
+      </c>
+      <c r="F13" s="9">
+        <v>118.0800037</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7">
+        <v>38.983224</v>
+      </c>
+      <c r="F14" s="9">
+        <v>117.7406203</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I10"/>
+    <hyperlink r:id="rId3" ref="I11"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/db/dummydata/st_hubs.xlsx
+++ b/db/dummydata/st_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>STATUS</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>PHOTO</t>
+  </si>
+  <si>
+    <t>IMPORT_CHARGES</t>
+  </si>
+  <si>
+    <t>EXPORT_CHARGES</t>
+  </si>
+  <si>
+    <t>PRE_CARRIAGE</t>
+  </si>
+  <si>
+    <t>ON_CARRIAGE</t>
   </si>
   <si>
     <t>active</t>
@@ -462,17 +474,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4">
@@ -482,25 +505,25 @@
         <v>9.918213</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="8">
@@ -510,23 +533,23 @@
         <v>120.280013</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="8">
@@ -536,23 +559,23 @@
         <v>121.7465133</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="8">
@@ -562,23 +585,23 @@
         <v>120.5018817</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="8">
@@ -588,23 +611,23 @@
         <v>55.031523</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="15">
         <v>21.4691431</v>
@@ -613,23 +636,23 @@
         <v>39.1451453</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" s="10">
         <v>-37.8386957</v>
@@ -638,23 +661,23 @@
         <v>144.906167</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
         <v>-33.8605435</v>
@@ -663,21 +686,21 @@
         <v>151.2006623</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="19">
@@ -687,13 +710,13 @@
         <v>122.064958</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -714,13 +737,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="20">
@@ -730,13 +753,13 @@
         <v>114.208415</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -756,13 +779,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7">
         <v>39.9387995</v>
@@ -771,18 +794,18 @@
         <v>116.2573776</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7">
         <v>24.491403</v>
@@ -791,21 +814,21 @@
         <v>118.0800037</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7">
         <v>38.983224</v>
@@ -814,21 +837,21 @@
         <v>117.7406203</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7">
         <v>18.9505341</v>
@@ -837,21 +860,21 @@
         <v>72.9447517</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7">
         <v>13.0815357</v>
@@ -860,21 +883,21 @@
         <v>80.2898703</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7">
         <v>-6.0919229</v>
@@ -883,21 +906,21 @@
         <v>106.8729119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7">
         <v>35.592707</v>
@@ -906,21 +929,21 @@
         <v>139.7725993</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" s="7">
         <v>43.6349247</v>
@@ -929,21 +952,21 @@
         <v>-79.3518244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7">
         <v>1.3078172</v>
@@ -952,21 +975,21 @@
         <v>103.7145289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7">
         <v>35.1035522</v>
@@ -975,21 +998,21 @@
         <v>129.033614</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7">
         <v>13.7037553</v>
@@ -998,21 +1021,21 @@
         <v>100.5666931</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7">
         <v>40.621658</v>
@@ -1021,21 +1044,21 @@
         <v>-74.1352832</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7">
         <v>33.741756</v>
@@ -1044,21 +1067,21 @@
         <v>-118.2612024</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E25" s="7">
         <v>25.7660879</v>
@@ -1067,21 +1090,21 @@
         <v>-80.2818162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E26" s="7">
         <v>10.7486912</v>
@@ -1090,21 +1113,21 @@
         <v>106.7261318</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E27" s="7">
         <v>19.1954627</v>
@@ -1113,10 +1136,10 @@
         <v>-96.1618775</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
